--- a/config/minor_fuels_capacity_parameters.xlsx
+++ b/config/minor_fuels_capacity_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54AF21B-D147-4B97-83B4-1C8A03625619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174DAE54-FD3B-44D3-9F88-57F0E1A692DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="21_VN_capacity" sheetId="24" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$C$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">simplified_economy_fuels!$A$1:$D$529</definedName>
   </definedNames>
   <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
@@ -87,7 +87,7 @@
 - satisfy_all_demand_with_domestic_production_EXACT:
     The economy satisfies all demand for a fuel with domestic production. This eliminates imports and exports, making the economy self-sufficient. It will also make it so production EXACTLY matches consumotion, so that even if production from previous years was more than consumption now, the production will decrease to match consumption (which would not happen in the other versions of this method).  If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will adjust this if it needs to make production match consumption. ***
 - keep_same_ratio_of_production_to_consumption:
-    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will throw an error because it would otherwise overwrite that data to make the ratio of production to consumption the same for all years. 
+    Maintains the existing ratio of exports, imports, and production, while ensuring all demand is met with domestic production. If working with a series that has already had capcaity data entered in (through ##_ECONOMY_capacity sheet), the code will throw an error because it would otherwise overwrite that data to make the ratio of production to consumption the same for all years.  - NOTE this can go a bit weird if consumption is quite small and icnreases in proprotion a lot, since it will increase exports and imports by same amount
 ***NOTE: where a fuel is usually supplied through transofrmation output, e.g. coal products, then satisfy_all_demand_with_domestic_production_EXACT  is not advised as a way to create the required supply. instead use keep_same_ratio_of_production_to_consumption so at least the missing/extra transformation output (for which creating transfomation output post-hoc is too late by the time supply modelling is being done) is satisfied with imports/exports</t>
         </r>
       </text>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="77">
   <si>
     <t>16_05_biogasoline</t>
   </si>
@@ -297,9 +297,6 @@
     <t>EBT_minor_fuels_list</t>
   </si>
   <si>
-    <t>02_coal_products</t>
-  </si>
-  <si>
     <t>01_05_lignite</t>
   </si>
   <si>
@@ -323,12 +320,21 @@
   <si>
     <t>13_tide_wave_ocean</t>
   </si>
+  <si>
+    <t>No historical demand and supply</t>
+  </si>
+  <si>
+    <t>assume future demand is met through domestic production</t>
+  </si>
+  <si>
+    <t>No historical demand and supply, no future demand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +355,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -402,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,6 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +918,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -914,22 +938,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7410,17 +7429,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F551"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375:C551"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289:XFD289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" customWidth="1"/>
     <col min="3" max="3" width="50.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7443,172 +7461,172 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -7616,175 +7634,175 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
+      <c r="B26" t="s">
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
+      <c r="B30" t="s">
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>12</v>
+      <c r="B31" t="s">
+        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
+      <c r="B32" t="s">
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -7792,7 +7810,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -7801,9 +7819,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -7812,9 +7830,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -7823,9 +7841,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -7834,9 +7852,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -7845,122 +7863,122 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -7968,175 +7986,175 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -8144,175 +8162,175 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -8320,7 +8338,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -8329,9 +8347,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -8340,9 +8358,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -8351,9 +8369,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -8362,9 +8380,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -8373,122 +8391,122 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
         <v>3</v>
       </c>
-      <c r="C87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
         <v>2</v>
       </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
@@ -8496,175 +8514,175 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
         <v>7</v>
       </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" t="s">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -8672,227 +8690,239 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>38</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>66</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>71</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>38</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>72</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>38</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>73</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>38</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -8900,299 +8930,323 @@
       <c r="C134" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>39</v>
-      </c>
-      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
         <v>3</v>
       </c>
-      <c r="C135" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>39</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C136" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>36</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>39</v>
-      </c>
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
       <c r="C139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" t="s">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>39</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142" t="s">
         <v>2</v>
       </c>
-      <c r="C141" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143" s="6" t="s">
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C143" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>68</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>37</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>40</v>
-      </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>40</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" t="s">
         <v>3</v>
       </c>
-      <c r="C151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>40</v>
-      </c>
-      <c r="B152" s="6" t="s">
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C152" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>40</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>40</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>40</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>40</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>40</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>40</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>40</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>40</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>40</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C161" t="s">
         <v>26</v>
@@ -9200,227 +9254,239 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>41</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C162" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>41</v>
-      </c>
-      <c r="B163" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C163" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>41</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C167" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="B170" t="s">
+        <v>66</v>
       </c>
       <c r="C170" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C171" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C172" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C173" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>41</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B174" t="s">
+        <v>71</v>
       </c>
       <c r="C174" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>41</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="B175" t="s">
+        <v>72</v>
       </c>
       <c r="C175" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>41</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="B176" t="s">
+        <v>73</v>
       </c>
       <c r="C176" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="B177" t="s">
+        <v>67</v>
       </c>
       <c r="C177" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -9429,122 +9495,134 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>42</v>
-      </c>
-      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>38</v>
+      </c>
+      <c r="B184" t="s">
         <v>3</v>
       </c>
-      <c r="C183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>42</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>42</v>
-      </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>38</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C186" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>42</v>
-      </c>
-      <c r="B187" t="s">
-        <v>0</v>
-      </c>
       <c r="C187" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189" t="s">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>42</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>38</v>
+      </c>
+      <c r="B190" t="s">
         <v>2</v>
       </c>
-      <c r="C189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>42</v>
-      </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>38</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C190" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>42</v>
-      </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>38</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C191" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>42</v>
-      </c>
-      <c r="B192" s="6" t="s">
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>42</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>26</v>
@@ -9552,175 +9630,175 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B194" t="s">
+        <v>66</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>39</v>
+      </c>
+      <c r="B197" t="s">
+        <v>70</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" t="s">
+        <v>71</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199" t="s">
+        <v>72</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>39</v>
+      </c>
+      <c r="B201" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" t="s">
         <v>4</v>
       </c>
-      <c r="C194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>39</v>
+      </c>
+      <c r="B203" t="s">
         <v>5</v>
       </c>
-      <c r="C195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>43</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" t="s">
         <v>6</v>
       </c>
-      <c r="C196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>43</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" t="s">
         <v>7</v>
       </c>
-      <c r="C197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>43</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" t="s">
         <v>8</v>
       </c>
-      <c r="C198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>43</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" t="s">
         <v>3</v>
       </c>
-      <c r="C199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>43</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>43</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>43</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>43</v>
-      </c>
-      <c r="B203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>43</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>43</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>43</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>43</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>43</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>43</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C209" t="s">
         <v>26</v>
@@ -9728,175 +9806,175 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>44</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C210" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>44</v>
-      </c>
-      <c r="B211" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C211" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>44</v>
-      </c>
-      <c r="B215" t="s">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C215" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>44</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="B218" t="s">
+        <v>66</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B220" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C220" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C221" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>44</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B222" t="s">
+        <v>71</v>
       </c>
       <c r="C222" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>44</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="B223" t="s">
+        <v>72</v>
       </c>
       <c r="C223" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>44</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B224" t="s">
+        <v>73</v>
       </c>
       <c r="C224" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>44</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B225" t="s">
+        <v>67</v>
       </c>
       <c r="C225" t="s">
         <v>26</v>
@@ -9904,7 +9982,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -9913,9 +9991,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -9924,9 +10002,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -9935,9 +10013,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -9946,9 +10024,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
@@ -9957,122 +10035,122 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>45</v>
-      </c>
-      <c r="B231" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" t="s">
         <v>3</v>
       </c>
-      <c r="C231" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>45</v>
-      </c>
-      <c r="B232" s="6" t="s">
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233" s="6" t="s">
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>40</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C233" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>45</v>
-      </c>
-      <c r="B234" s="6" t="s">
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C234" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>45</v>
-      </c>
-      <c r="B235" t="s">
-        <v>0</v>
-      </c>
       <c r="C235" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237" t="s">
         <v>1</v>
       </c>
-      <c r="C236" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>45</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" t="s">
         <v>2</v>
       </c>
-      <c r="C237" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>45</v>
-      </c>
-      <c r="B238" s="6" t="s">
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C238" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>45</v>
-      </c>
-      <c r="B239" s="6" t="s">
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>45</v>
-      </c>
-      <c r="B240" s="6" t="s">
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>45</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C241" t="s">
         <v>26</v>
@@ -10080,175 +10158,175 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B242" t="s">
+        <v>66</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" t="s">
+        <v>68</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" t="s">
+        <v>70</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>41</v>
+      </c>
+      <c r="B246" t="s">
+        <v>71</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>41</v>
+      </c>
+      <c r="B247" t="s">
+        <v>72</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" t="s">
+        <v>73</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>41</v>
+      </c>
+      <c r="B249" t="s">
+        <v>67</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>41</v>
+      </c>
+      <c r="B250" t="s">
         <v>4</v>
       </c>
-      <c r="C242" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>46</v>
-      </c>
-      <c r="B243" t="s">
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251" t="s">
         <v>5</v>
       </c>
-      <c r="C243" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>46</v>
-      </c>
-      <c r="B244" t="s">
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>41</v>
+      </c>
+      <c r="B252" t="s">
         <v>6</v>
       </c>
-      <c r="C244" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>46</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" t="s">
         <v>7</v>
       </c>
-      <c r="C245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>46</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="C246" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>46</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256" t="s">
         <v>3</v>
       </c>
-      <c r="C247" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>46</v>
-      </c>
-      <c r="B248" s="6" t="s">
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C248" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>46</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C249" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>46</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C250" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>46</v>
-      </c>
-      <c r="B251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>46</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>46</v>
-      </c>
-      <c r="B253" t="s">
-        <v>2</v>
-      </c>
-      <c r="C253" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>46</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C254" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>46</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>46</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>46</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -10256,529 +10334,555 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>47</v>
-      </c>
-      <c r="B258" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>41</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B266" t="s">
+        <v>66</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B267" t="s">
+        <v>68</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B268" t="s">
+        <v>69</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B269" t="s">
+        <v>70</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B270" t="s">
+        <v>71</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" t="s">
+        <v>72</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B272" t="s">
+        <v>73</v>
+      </c>
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B273" t="s">
+        <v>67</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C258" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>47</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="C274" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C259" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>47</v>
-      </c>
-      <c r="B260" t="s">
+      <c r="C275" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C260" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>47</v>
-      </c>
-      <c r="B261" t="s">
+      <c r="C276" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C261" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>47</v>
-      </c>
-      <c r="B262" t="s">
+      <c r="C277" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C262" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>47</v>
-      </c>
-      <c r="B263" t="s">
+      <c r="C278" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C263" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>47</v>
-      </c>
-      <c r="B264" s="6" t="s">
+      <c r="C280" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C264" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>47</v>
-      </c>
-      <c r="B265" s="6" t="s">
+      <c r="C281" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C265" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>47</v>
-      </c>
-      <c r="B266" s="6" t="s">
+      <c r="C282" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C266" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>47</v>
-      </c>
-      <c r="B267" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>47</v>
-      </c>
-      <c r="B268" t="s">
+      <c r="C283" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C268" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>47</v>
-      </c>
-      <c r="B269" t="s">
+      <c r="C285" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C269" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>47</v>
-      </c>
-      <c r="B270" s="6" t="s">
+      <c r="C286" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C270" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>47</v>
-      </c>
-      <c r="B271" s="6" t="s">
+      <c r="C287" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C271" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>47</v>
-      </c>
-      <c r="B272" s="6" t="s">
+      <c r="C288" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C272" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>47</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C273" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>48</v>
-      </c>
-      <c r="B274" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>48</v>
-      </c>
-      <c r="B275" t="s">
-        <v>5</v>
-      </c>
-      <c r="C275" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>48</v>
-      </c>
-      <c r="B276" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>48</v>
-      </c>
-      <c r="B277" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>48</v>
-      </c>
-      <c r="B278" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>48</v>
-      </c>
-      <c r="B279" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>48</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C280" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>48</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C281" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>48</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C282" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>48</v>
-      </c>
-      <c r="B283" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>26</v>
-      </c>
-      <c r="F283" s="5"/>
-    </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>48</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
-        <v>26</v>
-      </c>
-      <c r="F284" s="5"/>
-    </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>48</v>
-      </c>
-      <c r="B285" t="s">
-        <v>2</v>
-      </c>
-      <c r="C285" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>48</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C286" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>48</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>48</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>48</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="C289" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B290" t="s">
+        <v>66</v>
+      </c>
+      <c r="C290" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>43</v>
+      </c>
+      <c r="B291" t="s">
+        <v>68</v>
+      </c>
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>43</v>
+      </c>
+      <c r="B292" t="s">
+        <v>69</v>
+      </c>
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>43</v>
+      </c>
+      <c r="B293" t="s">
+        <v>70</v>
+      </c>
+      <c r="C293" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>43</v>
+      </c>
+      <c r="B294" t="s">
+        <v>71</v>
+      </c>
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>43</v>
+      </c>
+      <c r="B295" t="s">
+        <v>72</v>
+      </c>
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>43</v>
+      </c>
+      <c r="B296" t="s">
+        <v>73</v>
+      </c>
+      <c r="C296" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>43</v>
+      </c>
+      <c r="B297" t="s">
+        <v>67</v>
+      </c>
+      <c r="C297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" t="s">
         <v>4</v>
       </c>
-      <c r="C290" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>49</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="C298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>43</v>
+      </c>
+      <c r="B299" t="s">
         <v>5</v>
       </c>
-      <c r="C291" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>49</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="C299" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>43</v>
+      </c>
+      <c r="B300" t="s">
         <v>6</v>
       </c>
-      <c r="C292" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>49</v>
-      </c>
-      <c r="B293" t="s">
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>43</v>
+      </c>
+      <c r="B301" t="s">
         <v>7</v>
       </c>
-      <c r="C293" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>49</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="C301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>43</v>
+      </c>
+      <c r="B302" t="s">
         <v>8</v>
       </c>
-      <c r="C294" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>49</v>
-      </c>
-      <c r="B295" t="s">
+      <c r="C302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>43</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>43</v>
+      </c>
+      <c r="B304" t="s">
         <v>3</v>
       </c>
-      <c r="C295" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>49</v>
-      </c>
-      <c r="B296" s="6" t="s">
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>43</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C296" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>49</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C297" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>49</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C298" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>49</v>
-      </c>
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>49</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1</v>
-      </c>
-      <c r="C300" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>49</v>
-      </c>
-      <c r="B301" t="s">
-        <v>2</v>
-      </c>
-      <c r="C301" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>49</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C302" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>49</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>49</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C304" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>49</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>26</v>
@@ -10786,175 +10890,175 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>50</v>
-      </c>
-      <c r="B306" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C306" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>50</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C307" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C308" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C309" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C310" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>50</v>
-      </c>
-      <c r="B311" t="s">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C312" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>50</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="B314" t="s">
+        <v>66</v>
       </c>
       <c r="C314" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B315" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C315" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B316" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B317" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C317" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>50</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="B318" t="s">
+        <v>71</v>
       </c>
       <c r="C318" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>50</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="B319" t="s">
+        <v>72</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>50</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="B320" t="s">
+        <v>73</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>50</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="B321" t="s">
+        <v>67</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
@@ -10962,7 +11066,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
@@ -10971,9 +11075,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -10982,9 +11086,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
@@ -10993,9 +11097,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -11004,9 +11108,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B326" t="s">
         <v>8</v>
@@ -11015,122 +11119,122 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>51</v>
-      </c>
-      <c r="B327" t="s">
+        <v>44</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328" t="s">
         <v>3</v>
       </c>
-      <c r="C327" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>51</v>
-      </c>
-      <c r="B328" s="6" t="s">
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>44</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C328" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>51</v>
-      </c>
-      <c r="B329" s="6" t="s">
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>44</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C329" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>51</v>
-      </c>
-      <c r="B330" s="6" t="s">
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>44</v>
+      </c>
+      <c r="B331" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C330" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>51</v>
-      </c>
-      <c r="B331" t="s">
-        <v>0</v>
-      </c>
       <c r="C331" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>44</v>
+      </c>
+      <c r="B333" t="s">
         <v>1</v>
       </c>
-      <c r="C332" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>51</v>
-      </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>44</v>
+      </c>
+      <c r="B334" t="s">
         <v>2</v>
       </c>
-      <c r="C333" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>51</v>
-      </c>
-      <c r="B334" s="6" t="s">
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>44</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C334" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>51</v>
-      </c>
-      <c r="B335" s="6" t="s">
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>44</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C335" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>51</v>
-      </c>
-      <c r="B336" s="6" t="s">
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>44</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C336" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>51</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -11138,175 +11242,175 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B338" t="s">
+        <v>66</v>
+      </c>
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>45</v>
+      </c>
+      <c r="B340" t="s">
+        <v>69</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>45</v>
+      </c>
+      <c r="B341" t="s">
+        <v>70</v>
+      </c>
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>45</v>
+      </c>
+      <c r="B342" t="s">
+        <v>71</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>45</v>
+      </c>
+      <c r="B343" t="s">
+        <v>72</v>
+      </c>
+      <c r="C343" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>45</v>
+      </c>
+      <c r="B344" t="s">
+        <v>73</v>
+      </c>
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>45</v>
+      </c>
+      <c r="B345" t="s">
+        <v>67</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>45</v>
+      </c>
+      <c r="B346" t="s">
         <v>4</v>
       </c>
-      <c r="C338" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>52</v>
-      </c>
-      <c r="B339" t="s">
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>45</v>
+      </c>
+      <c r="B347" t="s">
         <v>5</v>
       </c>
-      <c r="C339" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>52</v>
-      </c>
-      <c r="B340" t="s">
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>45</v>
+      </c>
+      <c r="B348" t="s">
         <v>6</v>
       </c>
-      <c r="C340" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>52</v>
-      </c>
-      <c r="B341" t="s">
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>45</v>
+      </c>
+      <c r="B349" t="s">
         <v>7</v>
       </c>
-      <c r="C341" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>52</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>45</v>
+      </c>
+      <c r="B350" t="s">
         <v>8</v>
       </c>
-      <c r="C342" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>52</v>
-      </c>
-      <c r="B343" t="s">
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>45</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>45</v>
+      </c>
+      <c r="B352" t="s">
         <v>3</v>
       </c>
-      <c r="C343" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>52</v>
-      </c>
-      <c r="B344" s="6" t="s">
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>45</v>
+      </c>
+      <c r="B353" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C344" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>52</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C345" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>52</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C346" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>52</v>
-      </c>
-      <c r="B347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>52</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1</v>
-      </c>
-      <c r="C348" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>52</v>
-      </c>
-      <c r="B349" t="s">
-        <v>2</v>
-      </c>
-      <c r="C349" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>52</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C350" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>52</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C351" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>52</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C352" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>52</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C353" t="s">
         <v>26</v>
@@ -11314,167 +11418,167 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>24</v>
-      </c>
-      <c r="B354" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C354" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>21</v>
-      </c>
-      <c r="B355" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B356" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B357" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B358" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>36</v>
-      </c>
-      <c r="B359" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C359" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>37</v>
-      </c>
-      <c r="B360" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>38</v>
-      </c>
-      <c r="B361" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B362" t="s">
         <v>66</v>
       </c>
       <c r="C362" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B363" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B364" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B365" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C365" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B366" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C366" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B367" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C367" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B368" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C368" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -11482,758 +11586,794 @@
         <v>46</v>
       </c>
       <c r="B369" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C369" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B370" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B371" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B372" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B373" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C373" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B374" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C374" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>52</v>
-      </c>
-      <c r="B375" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C375" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B376" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C376" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>21</v>
-      </c>
-      <c r="B377" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C377" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>33</v>
-      </c>
-      <c r="B378" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C378" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>34</v>
-      </c>
-      <c r="B379" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B380" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B381" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C381" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B382" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C382" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>38</v>
-      </c>
-      <c r="B383" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C383" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>39</v>
-      </c>
-      <c r="B384" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>40</v>
-      </c>
-      <c r="B385" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C385" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B386" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C386" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B387" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C387" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B388" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C388" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B389" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C389" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B390" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C390" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B391" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C391" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>47</v>
       </c>
       <c r="B392" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C392" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B393" t="s">
         <v>67</v>
       </c>
       <c r="C393" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>49</v>
-      </c>
-      <c r="B394" t="s">
-        <v>67</v>
-      </c>
-      <c r="C394" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>50</v>
-      </c>
-      <c r="B395" t="s">
-        <v>67</v>
-      </c>
-      <c r="C395" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>51</v>
-      </c>
-      <c r="B396" t="s">
-        <v>67</v>
-      </c>
-      <c r="C396" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>52</v>
-      </c>
-      <c r="B397" t="s">
-        <v>67</v>
-      </c>
-      <c r="C397" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>24</v>
-      </c>
-      <c r="B398" t="s">
-        <v>68</v>
-      </c>
-      <c r="C398" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>21</v>
-      </c>
-      <c r="B399" t="s">
-        <v>68</v>
-      </c>
-      <c r="C399" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>33</v>
-      </c>
-      <c r="B400" t="s">
-        <v>68</v>
-      </c>
-      <c r="C400" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>34</v>
-      </c>
-      <c r="B401" t="s">
-        <v>68</v>
-      </c>
-      <c r="C401" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" t="s">
-        <v>35</v>
-      </c>
-      <c r="B402" t="s">
-        <v>68</v>
-      </c>
-      <c r="C402" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" t="s">
-        <v>36</v>
-      </c>
-      <c r="B403" t="s">
-        <v>68</v>
-      </c>
-      <c r="C403" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" t="s">
-        <v>37</v>
-      </c>
-      <c r="B404" t="s">
-        <v>68</v>
-      </c>
-      <c r="C404" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" t="s">
-        <v>38</v>
-      </c>
-      <c r="B405" t="s">
-        <v>68</v>
-      </c>
-      <c r="C405" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" t="s">
-        <v>39</v>
-      </c>
-      <c r="B406" t="s">
-        <v>68</v>
-      </c>
-      <c r="C406" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" t="s">
-        <v>40</v>
-      </c>
-      <c r="B407" t="s">
-        <v>68</v>
-      </c>
-      <c r="C407" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A408" t="s">
-        <v>41</v>
-      </c>
-      <c r="B408" t="s">
-        <v>68</v>
-      </c>
-      <c r="C408" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A409" t="s">
-        <v>42</v>
-      </c>
-      <c r="B409" t="s">
-        <v>68</v>
-      </c>
-      <c r="C409" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D398" s="6"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D399" s="6"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D401" s="6"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D402" s="6"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D403" s="6"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D409" s="6"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B410" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C410" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B411" t="s">
         <v>68</v>
       </c>
       <c r="C411" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B412" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C412" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B413" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C413" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B414" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C414" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>48</v>
       </c>
       <c r="B415" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C415" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B416" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C416" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B417" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C417" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B418" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B419" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B420" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C420" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B421" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C421" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B422" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C422" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>34</v>
-      </c>
-      <c r="B423" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C423" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B424" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C424" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>36</v>
-      </c>
-      <c r="B425" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C425" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>37</v>
-      </c>
-      <c r="B426" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C426" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>38</v>
-      </c>
-      <c r="B427" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C427" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B428" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C428" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B429" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C429" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B430" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C430" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>42</v>
-      </c>
-      <c r="B431" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C431" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>43</v>
-      </c>
-      <c r="B432" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C432" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>44</v>
-      </c>
-      <c r="B433" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B434" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C434" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B435" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C435" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B436" t="s">
         <v>69</v>
       </c>
       <c r="C436" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B437" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C437" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -12241,252 +12381,252 @@
         <v>49</v>
       </c>
       <c r="B438" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C438" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B439" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C439" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B440" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C440" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B441" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C441" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B442" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C442" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B443" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C443" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B444" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C444" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B445" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C445" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B446" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C446" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>36</v>
-      </c>
-      <c r="B447" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C447" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B448" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C448" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>38</v>
-      </c>
-      <c r="B449" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C449" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>39</v>
-      </c>
-      <c r="B450" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C450" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>40</v>
-      </c>
-      <c r="B451" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C451" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B452" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C452" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B453" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C453" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B454" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C454" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>44</v>
-      </c>
-      <c r="B455" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C455" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>45</v>
-      </c>
-      <c r="B456" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C456" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>46</v>
-      </c>
-      <c r="B457" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C457" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B458" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C458" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B459" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C459" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B460" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C460" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -12497,609 +12637,660 @@
         <v>70</v>
       </c>
       <c r="C461" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B462" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C462" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B463" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C463" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B464" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C464" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B465" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C465" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B466" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C466" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D466" s="6"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B467" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C467" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D467" s="6"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B468" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C468" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D468" s="6"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B469" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C469" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D469" s="6"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B470" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C470" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D470" s="6"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>38</v>
-      </c>
-      <c r="B471" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C471" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B472" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C472" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D472" s="6"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>40</v>
-      </c>
-      <c r="B473" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C473" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>41</v>
-      </c>
-      <c r="B474" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C474" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D474" s="6"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>42</v>
-      </c>
-      <c r="B475" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C475" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D475" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B476" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C476" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D476" s="6"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B477" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C477" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D477" s="6"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B478" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C478" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>46</v>
-      </c>
-      <c r="B479" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C479" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D479" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>47</v>
-      </c>
-      <c r="B480" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C480" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D480" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>48</v>
-      </c>
-      <c r="B481" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C481" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D481" s="6"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B482" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C482" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B483" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C483" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>51</v>
       </c>
       <c r="B484" t="s">
+        <v>69</v>
+      </c>
+      <c r="C484" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>51</v>
+      </c>
+      <c r="B485" t="s">
+        <v>70</v>
+      </c>
+      <c r="C485" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>51</v>
+      </c>
+      <c r="B486" t="s">
         <v>71</v>
       </c>
-      <c r="C484" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A485" t="s">
-        <v>52</v>
-      </c>
-      <c r="B485" t="s">
-        <v>71</v>
-      </c>
-      <c r="C485" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A486" t="s">
-        <v>24</v>
-      </c>
-      <c r="B486" t="s">
-        <v>72</v>
-      </c>
       <c r="C486" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B487" t="s">
         <v>72</v>
       </c>
       <c r="C487" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B488" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C488" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B489" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C489" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B490" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C490" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D490" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B491" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C491" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D491" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B492" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C492" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D492" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B493" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C493" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D493" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B494" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C494" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D494" s="6"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>40</v>
-      </c>
-      <c r="B495" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C495" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B496" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C496" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D496" s="6"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>42</v>
-      </c>
-      <c r="B497" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C497" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D497" s="6"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>43</v>
-      </c>
-      <c r="B498" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C498" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D498" s="6"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>44</v>
-      </c>
-      <c r="B499" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C499" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D499" s="6"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B500" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C500" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D500" s="6"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B501" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D501" s="6"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B502" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C502" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D502" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>48</v>
-      </c>
-      <c r="B503" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C503" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D503" s="6"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>49</v>
-      </c>
-      <c r="B504" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C504" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D504" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>50</v>
-      </c>
-      <c r="B505" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C505" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B506" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C506" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>52</v>
       </c>
       <c r="B507" t="s">
+        <v>68</v>
+      </c>
+      <c r="C507" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>52</v>
+      </c>
+      <c r="B508" t="s">
+        <v>69</v>
+      </c>
+      <c r="C508" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>52</v>
+      </c>
+      <c r="B509" t="s">
+        <v>70</v>
+      </c>
+      <c r="C509" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>52</v>
+      </c>
+      <c r="B510" t="s">
+        <v>71</v>
+      </c>
+      <c r="C510" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>52</v>
+      </c>
+      <c r="B511" t="s">
         <v>72</v>
       </c>
-      <c r="C507" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A508" t="s">
-        <v>24</v>
-      </c>
-      <c r="B508" t="s">
-        <v>73</v>
-      </c>
-      <c r="C508" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A509" t="s">
-        <v>21</v>
-      </c>
-      <c r="B509" t="s">
-        <v>73</v>
-      </c>
-      <c r="C509" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A510" t="s">
-        <v>33</v>
-      </c>
-      <c r="B510" t="s">
-        <v>73</v>
-      </c>
-      <c r="C510" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A511" t="s">
-        <v>34</v>
-      </c>
-      <c r="B511" t="s">
-        <v>73</v>
-      </c>
       <c r="C511" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B512" t="s">
         <v>73</v>
       </c>
       <c r="C512" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B513" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C513" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B514" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C514" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B515" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C515" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B516" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C516" t="s">
         <v>29</v>
@@ -13107,87 +13298,87 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B517" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C517" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B518" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C518" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>42</v>
-      </c>
-      <c r="B519" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C519" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B520" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C520" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>44</v>
-      </c>
-      <c r="B521" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C521" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>45</v>
-      </c>
-      <c r="B522" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C522" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>46</v>
-      </c>
-      <c r="B523" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C523" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B524" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
@@ -13195,310 +13386,63 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B525" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C525" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B526" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C526" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>50</v>
-      </c>
-      <c r="B527" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C527" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>51</v>
-      </c>
-      <c r="B528" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C528" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>52</v>
       </c>
-      <c r="B529" t="s">
-        <v>73</v>
+      <c r="B529" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C529" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A530" t="s">
-        <v>24</v>
-      </c>
-      <c r="B530" t="s">
-        <v>74</v>
-      </c>
-      <c r="C530" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A531" t="s">
-        <v>21</v>
-      </c>
-      <c r="B531" t="s">
-        <v>74</v>
-      </c>
-      <c r="C531" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A532" t="s">
-        <v>33</v>
-      </c>
-      <c r="B532" t="s">
-        <v>74</v>
-      </c>
-      <c r="C532" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A533" t="s">
-        <v>34</v>
-      </c>
-      <c r="B533" t="s">
-        <v>74</v>
-      </c>
-      <c r="C533" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A534" t="s">
-        <v>35</v>
-      </c>
-      <c r="B534" t="s">
-        <v>74</v>
-      </c>
-      <c r="C534" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A535" t="s">
-        <v>36</v>
-      </c>
-      <c r="B535" t="s">
-        <v>74</v>
-      </c>
-      <c r="C535" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A536" t="s">
-        <v>37</v>
-      </c>
-      <c r="B536" t="s">
-        <v>74</v>
-      </c>
-      <c r="C536" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A537" t="s">
-        <v>38</v>
-      </c>
-      <c r="B537" t="s">
-        <v>74</v>
-      </c>
-      <c r="C537" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A538" t="s">
-        <v>39</v>
-      </c>
-      <c r="B538" t="s">
-        <v>74</v>
-      </c>
-      <c r="C538" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A539" t="s">
-        <v>40</v>
-      </c>
-      <c r="B539" t="s">
-        <v>74</v>
-      </c>
-      <c r="C539" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A540" t="s">
-        <v>41</v>
-      </c>
-      <c r="B540" t="s">
-        <v>74</v>
-      </c>
-      <c r="C540" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A541" t="s">
-        <v>42</v>
-      </c>
-      <c r="B541" t="s">
-        <v>74</v>
-      </c>
-      <c r="C541" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A542" t="s">
-        <v>43</v>
-      </c>
-      <c r="B542" t="s">
-        <v>74</v>
-      </c>
-      <c r="C542" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A543" t="s">
-        <v>44</v>
-      </c>
-      <c r="B543" t="s">
-        <v>74</v>
-      </c>
-      <c r="C543" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A544" t="s">
-        <v>45</v>
-      </c>
-      <c r="B544" t="s">
-        <v>74</v>
-      </c>
-      <c r="C544" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A545" t="s">
-        <v>46</v>
-      </c>
-      <c r="B545" t="s">
-        <v>74</v>
-      </c>
-      <c r="C545" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A546" t="s">
-        <v>47</v>
-      </c>
-      <c r="B546" t="s">
-        <v>74</v>
-      </c>
-      <c r="C546" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A547" t="s">
-        <v>48</v>
-      </c>
-      <c r="B547" t="s">
-        <v>74</v>
-      </c>
-      <c r="C547" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A548" t="s">
-        <v>49</v>
-      </c>
-      <c r="B548" t="s">
-        <v>74</v>
-      </c>
-      <c r="C548" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A549" t="s">
-        <v>50</v>
-      </c>
-      <c r="B549" t="s">
-        <v>74</v>
-      </c>
-      <c r="C549" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A550" t="s">
-        <v>51</v>
-      </c>
-      <c r="B550" t="s">
-        <v>74</v>
-      </c>
-      <c r="C550" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A551" t="s">
-        <v>52</v>
-      </c>
-      <c r="B551" t="s">
-        <v>74</v>
-      </c>
-      <c r="C551" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C353" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="15_01_fuelwood_and_woodwaste"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C353">
-      <sortCondition ref="A1:A353"/>
+  <autoFilter ref="A1:D529" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D529">
+      <sortCondition ref="A1:A529"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
